--- a/biology/Zoologie/Hydrophis_coggeri/Hydrophis_coggeri.xlsx
+++ b/biology/Zoologie/Hydrophis_coggeri/Hydrophis_coggeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis coggeri est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis coggeri est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans les eaux de l'Australie-Occidentale, de la Nouvelle-Calédonie et des Fidji[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans les eaux de l'Australie-Occidentale, de la Nouvelle-Calédonie et des Fidji.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis coggeri[2] mesure jusqu'à 115 cm. Cette espèce présente de grandes variations morphologiques, certains spécimens ont une tête petite et un cou fin alors que d'autres présentent un corps plus robuste. C'est un serpent marin venimeux[1] qui vit à une profondeur comprise entre 30 et 40 m[2]. Il se nourrit essentiellement de poissons des familles des Ophichthidae et des Congridae[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis coggeri mesure jusqu'à 115 cm. Cette espèce présente de grandes variations morphologiques, certains spécimens ont une tête petite et un cou fin alors que d'autres présentent un corps plus robuste. C'est un serpent marin venimeux qui vit à une profondeur comprise entre 30 et 40 m. Il se nourrit essentiellement de poissons des familles des Ophichthidae et des Congridae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Harold George Cogger[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Harold George Cogger.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kharin, 1984 : A review of sea snakes of the group Hydrophis sensu lato (Serpentes, Hydrophiidae). 3. The genus Leioselasma. Zoologicheskii Zhurnal, vol. 63, n. 10, p. 1535-1546.</t>
         </is>
